--- a/biology/Médecine/Shigella_sonnei/Shigella_sonnei.xlsx
+++ b/biology/Médecine/Shigella_sonnei/Shigella_sonnei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shigella sonnei est une bactérie responsable de shigellose, qui est une infection intestinale[1]. Cette bactérie est responsable de 90% des shigelloses[2]. Elle a été découverte par Carl Olaf Sonne[3]. 132 souches sont identifiées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shigella sonnei est une bactérie responsable de shigellose, qui est une infection intestinale. Cette bactérie est responsable de 90% des shigelloses. Elle a été découverte par Carl Olaf Sonne. 132 souches sont identifiées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bactérie est un bacille gram négatif immobile créant des flagelles. Elle est anaérobie facultative[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bactérie est un bacille gram négatif immobile créant des flagelles. Elle est anaérobie facultative.
 </t>
         </is>
       </c>
@@ -542,18 +556,12 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Shigella sonnei est responsable de shigelloses. Cette shigellose se manifeste bénignement[5]. Les personnes à risques sont les nourrissons, les jeunes enfants, les personnes âgées, les immunodéficients, les voyageurs dans des pays à faible niveau d'hygiène, les personnes déjà atteintes par une maladie intestinale et les hommes homosexuels.
-Symptômes
-Au bout d'un moment, après avoir ingéré la bactérie, une diarrhée apparaît accompagnée de douleurs abdominales, de crampes, de vomissements possibles, d'une fièvre possible, de nausées et d'une dysenterie (les dysenteries causées par les shigelles sont appelées dysenteries bacillaires, pour l'autre type, voir dysenterie amibienne)[6]. Après, la plupart des personnes surtout immunocompétentes et adultes guérissent. Si la maladie persiste et le patient n'est pas pris en charge, des complications apparaissent[7].
-Complications
-Les complications possibles sont : 
-la bactériémie, qui apparaît lorsque les bactéries passent dans le sang et s'y multiplient ;
-le syndrome hémolytique et urémique lorsque les bactéries entrent dans le système digestif dans lequel elles vont lyser les hématies[8] ;
-la déshydratation, lorsque la diarrhée entraîne des pertes d'eau dont l'organisme a besoin, donc les organes vont manquer d'eau, mal fonctionner et puis s'éteindre si la déshydratation n'est pas traitée. Les crises convulsives sont une des complications[9] ;
-l'arthrite réactionnelle, une inflammation des articulations, est également une complication possible ;
-le mégacôlon toxique, paralyse l'intestin ou cause un passage de gaz et enfin le prolapsus rectal[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shigella sonnei est responsable de shigelloses. Cette shigellose se manifeste bénignement. Les personnes à risques sont les nourrissons, les jeunes enfants, les personnes âgées, les immunodéficients, les voyageurs dans des pays à faible niveau d'hygiène, les personnes déjà atteintes par une maladie intestinale et les hommes homosexuels.
+</t>
         </is>
       </c>
     </row>
@@ -578,12 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transmission</t>
+          <t>Maladie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La transmission se fait par voie féco-orale. Les bactéries vont se multiplier dans les intestins afin de les coloniser. Ainsi, l'organisme va s'en débarrasser avec une diarrhée ou avec des vomissements associés à la diarrhée[11]. Les bactéries sont contenues dans les selles ou contenues aussi dans les vomissements du malade[3].
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au bout d'un moment, après avoir ingéré la bactérie, une diarrhée apparaît accompagnée de douleurs abdominales, de crampes, de vomissements possibles, d'une fièvre possible, de nausées et d'une dysenterie (les dysenteries causées par les shigelles sont appelées dysenteries bacillaires, pour l'autre type, voir dysenterie amibienne). Après, la plupart des personnes surtout immunocompétentes et adultes guérissent. Si la maladie persiste et le patient n'est pas pris en charge, des complications apparaissent.
 </t>
         </is>
       </c>
@@ -609,10 +623,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Maladie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les complications possibles sont : 
+la bactériémie, qui apparaît lorsque les bactéries passent dans le sang et s'y multiplient ;
+le syndrome hémolytique et urémique lorsque les bactéries entrent dans le système digestif dans lequel elles vont lyser les hématies ;
+la déshydratation, lorsque la diarrhée entraîne des pertes d'eau dont l'organisme a besoin, donc les organes vont manquer d'eau, mal fonctionner et puis s'éteindre si la déshydratation n'est pas traitée. Les crises convulsives sont une des complications ;
+l'arthrite réactionnelle, une inflammation des articulations, est également une complication possible ;
+le mégacôlon toxique, paralyse l'intestin ou cause un passage de gaz et enfin le prolapsus rectal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shigella_sonnei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shigella_sonnei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transmission se fait par voie féco-orale. Les bactéries vont se multiplier dans les intestins afin de les coloniser. Ainsi, l'organisme va s'en débarrasser avec une diarrhée ou avec des vomissements associés à la diarrhée. Les bactéries sont contenues dans les selles ou contenues aussi dans les vomissements du malade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shigella_sonnei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shigella_sonnei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévention repose sur l'hygiène en se lavant les mains avec du savon et laver les aliments avant de les manger.
 </t>
